--- a/utilities/Excel_Sheets/Products/RPM.xlsx
+++ b/utilities/Excel_Sheets/Products/RPM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Regression" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$L$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -482,12 +482,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB8D76-64D1-4CD9-9E50-52DDFE2E9627}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,19 +546,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C11" ca="1" si="0">TODAY()</f>
+        <f t="shared" ref="C2:C12" ca="1" si="0">TODAY()</f>
         <v>43272</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D11" ca="1" si="1">TODAY()-30</f>
+        <f t="shared" ref="D2:D12" ca="1" si="1">TODAY()-30</f>
         <v>43242</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>15</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -604,65 +604,79 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43272</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43242</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>299</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C6" s="5">
         <f ca="1">TODAY()</f>
         <v>43272</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D6" s="5">
         <f ca="1">TODAY()-30</f>
         <v>43242</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>43272</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
@@ -675,10 +689,10 @@
       <c r="H6" s="4">
         <v>1000000</v>
       </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -691,55 +705,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>43272</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>300</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -759,16 +731,16 @@
         <v>5</v>
       </c>
       <c r="H8" s="4">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -777,12 +749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -802,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>16</v>
@@ -822,10 +794,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -848,10 +820,10 @@
         <v>1000000</v>
       </c>
       <c r="I10" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>16</v>
@@ -863,12 +835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -891,10 +863,10 @@
         <v>1000000</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>16</v>
@@ -906,8 +878,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43272</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43242</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>400</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
